--- a/WJL_MES项目设备采集.xlsx
+++ b/WJL_MES项目设备采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,11 +137,6 @@
   </si>
   <si>
     <t>线体控制设备</t>
-  </si>
-  <si>
-    <t>读PLC网口
-MC协议 二进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设备状态</t>
@@ -424,7 +419,37 @@
   </si>
   <si>
     <t>读PLC网口
-MC协议 ASCII</t>
+modbus tcp协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已测试通信正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.103.232:502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍速链延时停止锁存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数据库
+SQL SERVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数据库
+ACCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需与厂家沟通建立数据库，未测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,45 +458,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已测试通信正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.103.232:502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y183</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍速链延时停止锁存时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读数据库
-SQL SERVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读数据库
-ACCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需与厂家沟通建立数据库，未测试</t>
+    <t>运行环境：kvm 镜像(.img) centos 6.8 x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈克普兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认mysql 或 协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>读PLC网口
-modbus tcp协议</t>
+MC协议 二进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读PLC网口
+MC协议 ASCII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信捷 XC3-32T-E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 铧禧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱Q02UCCPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱Q03UDVCPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱FX3U-32M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -592,11 +636,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,28 +718,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,22 +745,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,26 +1091,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1026,106 +1138,122 @@
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="K1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="H2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+        <v>88</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1134,145 +1262,167 @@
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="K6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1280,416 +1430,529 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <v>7</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>5</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>6</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="21" t="s">
+      <c r="F28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>7</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="K28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="G29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="3" t="s">
+      <c r="G31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="3" t="s">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="19"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="35"/>
+    </row>
+    <row r="36" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="61">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L19:L27"/>
+    <mergeCell ref="K19:K27"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="L28:L35"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="E28:E35"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H28:H35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="H19:H27"/>
+    <mergeCell ref="I19:I27"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="H8:H13"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="J2:J5"/>
@@ -1706,38 +1969,6 @@
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="I2:I5"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="H19:H27"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WJL_MES项目设备采集.xlsx
+++ b/WJL_MES项目设备采集.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67F607A0-20CD-49F5-9308-E07BDD49BB7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,50 +730,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,6 +748,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,6 +908,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -915,6 +960,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1090,12 +1152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28:K35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1104,15 +1166,15 @@
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,36 +1196,37 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1172,26 +1235,27 @@
       <c r="G2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1199,17 +1263,18 @@
         <v>86</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1217,17 +1282,18 @@
         <v>87</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1235,25 +1301,26 @@
         <v>88</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="25">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1262,28 +1329,29 @@
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1291,25 +1359,26 @@
         <v>22</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="25">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1318,26 +1387,27 @@
       <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1345,17 +1415,18 @@
         <v>22</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1363,17 +1434,18 @@
         <v>46</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1381,17 +1453,18 @@
         <v>47</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1399,17 +1472,18 @@
         <v>48</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1417,12 +1491,13 @@
         <v>47</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="K13" s="35"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1444,34 +1519,35 @@
       <c r="G14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="K14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="25">
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1480,88 +1556,92 @@
       <c r="G15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="K15" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="10" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
+      <c r="H18" s="22"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="28">
         <v>6</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="28">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1570,178 +1650,187 @@
       <c r="G19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="J19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="K19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="L19" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
+      <c r="H27" s="7"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="25">
         <v>7</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="25">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1750,180 +1839,227 @@
       <c r="G28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="13">
+        <v>402021</v>
+      </c>
+      <c r="I28" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="J28" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="K28" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="L28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="H29" s="15">
+        <v>403001</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="H30" s="15">
+        <v>403005</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="34"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="H31" s="15">
+        <v>403003</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="H32" s="43">
+        <v>402023</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="30"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="34"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="H33" s="43">
+        <v>403101</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="H34" s="43">
+        <v>403105</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="30"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="35"/>
-    </row>
-    <row r="36" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
+      <c r="H35" s="44">
+        <v>403103</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="K2:K5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
     <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="L15:L18"/>
     <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L19:L27"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="I19:I27"/>
+    <mergeCell ref="J19:J27"/>
     <mergeCell ref="K19:K27"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="L28:L35"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="D28:D35"/>
     <mergeCell ref="C28:C35"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="A28:A35"/>
@@ -1931,44 +2067,22 @@
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C19:C27"/>
     <mergeCell ref="D19:D27"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H28:H35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="H19:H27"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M19:M27"/>
+    <mergeCell ref="L19:L27"/>
+    <mergeCell ref="L28:L35"/>
+    <mergeCell ref="M28:M35"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="D28:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WJL_MES项目设备采集.xlsx
+++ b/WJL_MES项目设备采集.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67F607A0-20CD-49F5-9308-E07BDD49BB7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29BCBE61-CCCD-49BC-85A2-BD210E85F2EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,6 +749,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -756,18 +807,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,45 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,7 +1157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,26 +1236,26 @@
         <v>85</v>
       </c>
       <c r="H2" s="13"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="27" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="29"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1263,18 +1263,18 @@
         <v>86</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1282,18 +1282,18 @@
         <v>87</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1301,11 +1301,11 @@
         <v>88</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="31"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
@@ -1330,28 +1330,28 @@
         <v>21</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>109</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1359,11 +1359,11 @@
         <v>22</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
@@ -1388,26 +1388,26 @@
         <v>45</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="29"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1415,18 +1415,18 @@
         <v>22</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1434,18 +1434,18 @@
         <v>46</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1453,18 +1453,18 @@
         <v>47</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1472,18 +1472,18 @@
         <v>48</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,11 +1491,11 @@
         <v>47</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1557,26 +1557,26 @@
         <v>34</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="27" t="s">
         <v>80</v>
       </c>
       <c r="L15" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="29"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="10" t="s">
         <v>106</v>
       </c>
@@ -1584,18 +1584,18 @@
         <v>105</v>
       </c>
       <c r="H16" s="21"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="30"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1603,18 +1603,18 @@
         <v>41</v>
       </c>
       <c r="H17" s="21"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1622,26 +1622,26 @@
         <v>44</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="31"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
+      <c r="A19" s="38">
         <v>6</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="38">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1651,26 +1651,26 @@
         <v>55</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="L19" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="29"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1678,18 +1678,18 @@
         <v>57</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="30"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1697,18 +1697,18 @@
         <v>59</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="30"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1716,18 +1716,18 @@
         <v>60</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="30"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="11" t="s">
         <v>69</v>
       </c>
@@ -1735,18 +1735,18 @@
         <v>61</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="30"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="11" t="s">
         <v>70</v>
       </c>
@@ -1754,18 +1754,18 @@
         <v>62</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="11" t="s">
         <v>63</v>
       </c>
@@ -1773,18 +1773,18 @@
         <v>64</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="30"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="11" t="s">
         <v>65</v>
       </c>
@@ -1792,18 +1792,18 @@
         <v>66</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="30"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="11" t="s">
         <v>67</v>
       </c>
@@ -1811,11 +1811,11 @@
         <v>68</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="31"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
@@ -1842,26 +1842,26 @@
       <c r="H28" s="13">
         <v>402021</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>102</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="27" t="s">
         <v>103</v>
       </c>
       <c r="L28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="29"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
@@ -1871,18 +1871,18 @@
       <c r="H29" s="15">
         <v>403001</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="3" t="s">
         <v>90</v>
       </c>
@@ -1892,18 +1892,18 @@
       <c r="H30" s="15">
         <v>403005</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
@@ -1913,115 +1913,160 @@
       <c r="H31" s="15">
         <v>403003</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="43"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="23">
         <v>402023</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="43"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="23">
         <v>403101</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="43"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="23">
         <v>403105</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="43"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="24">
         <v>403103</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="31"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="44"/>
     </row>
     <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M19:M27"/>
+    <mergeCell ref="L19:L27"/>
+    <mergeCell ref="L28:L35"/>
+    <mergeCell ref="M28:M35"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="E28:E35"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="I19:I27"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="K19:K27"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="I8:I13"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="K2:K5"/>
@@ -2038,51 +2083,6 @@
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="J2:J5"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="K19:K27"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M19:M27"/>
-    <mergeCell ref="L19:L27"/>
-    <mergeCell ref="L28:L35"/>
-    <mergeCell ref="M28:M35"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="D28:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WJL_MES项目设备采集.xlsx
+++ b/WJL_MES项目设备采集.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29BCBE61-CCCD-49BC-85A2-BD210E85F2EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E016DC06-1CA6-4606-961D-1A61F61848D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,12 +755,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -770,50 +803,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1156,8 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,19 +1214,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="27">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1236,26 +1236,26 @@
         <v>85</v>
       </c>
       <c r="H2" s="13"/>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1263,18 +1263,18 @@
         <v>86</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="43"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1282,18 +1282,18 @@
         <v>87</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="43"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1301,26 +1301,26 @@
         <v>88</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="44"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1330,28 +1330,28 @@
         <v>21</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1359,26 +1359,26 @@
         <v>22</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="38"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="25">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1388,26 +1388,26 @@
         <v>45</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="42"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1415,18 +1415,18 @@
         <v>22</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="43"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1434,18 +1434,18 @@
         <v>46</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="43"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1453,18 +1453,18 @@
         <v>47</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="43"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1472,18 +1472,18 @@
         <v>48</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="43"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,11 +1491,11 @@
         <v>47</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="44"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1535,19 +1535,19 @@
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25">
+      <c r="A15" s="27">
         <v>5</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="27">
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1557,26 +1557,26 @@
         <v>34</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="42"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="10" t="s">
         <v>106</v>
       </c>
@@ -1584,18 +1584,18 @@
         <v>105</v>
       </c>
       <c r="H16" s="21"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1603,18 +1603,18 @@
         <v>41</v>
       </c>
       <c r="H17" s="21"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1622,26 +1622,26 @@
         <v>44</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="38">
+      <c r="A19" s="30">
         <v>6</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="30">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1651,26 +1651,26 @@
         <v>55</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="M19" s="42"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1678,18 +1678,18 @@
         <v>57</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="43"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1697,18 +1697,18 @@
         <v>59</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="43"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1716,18 +1716,18 @@
         <v>60</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="43"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="11" t="s">
         <v>69</v>
       </c>
@@ -1735,18 +1735,18 @@
         <v>61</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="43"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="11" t="s">
         <v>70</v>
       </c>
@@ -1754,18 +1754,18 @@
         <v>62</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="43"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="11" t="s">
         <v>63</v>
       </c>
@@ -1773,18 +1773,18 @@
         <v>64</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="43"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="11" t="s">
         <v>65</v>
       </c>
@@ -1792,18 +1792,18 @@
         <v>66</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="43"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="11" t="s">
         <v>67</v>
       </c>
@@ -1811,26 +1811,26 @@
         <v>68</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="44"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="25">
+      <c r="A28" s="27">
         <v>7</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="27">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1840,28 +1840,28 @@
         <v>76</v>
       </c>
       <c r="H28" s="13">
-        <v>402021</v>
-      </c>
-      <c r="I28" s="31" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I28" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="42"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
@@ -1869,20 +1869,20 @@
         <v>97</v>
       </c>
       <c r="H29" s="15">
-        <v>403001</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="43"/>
+        <v>3000</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="3" t="s">
         <v>90</v>
       </c>
@@ -1890,20 +1890,20 @@
         <v>94</v>
       </c>
       <c r="H30" s="15">
-        <v>403005</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="43"/>
+        <v>3004</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
@@ -1911,20 +1911,20 @@
         <v>89</v>
       </c>
       <c r="H31" s="15">
-        <v>403003</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="43"/>
+        <v>3002</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1932,20 +1932,20 @@
         <v>95</v>
       </c>
       <c r="H32" s="23">
-        <v>402023</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="43"/>
+        <v>2022</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="3" t="s">
         <v>92</v>
       </c>
@@ -1953,20 +1953,20 @@
         <v>96</v>
       </c>
       <c r="H33" s="23">
-        <v>403101</v>
-      </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="43"/>
+        <v>3100</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="3" t="s">
         <v>93</v>
       </c>
@@ -1974,20 +1974,20 @@
         <v>101</v>
       </c>
       <c r="H34" s="23">
-        <v>403105</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="43"/>
+        <v>3104</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="11" t="s">
         <v>99</v>
       </c>
@@ -1995,33 +1995,78 @@
         <v>100</v>
       </c>
       <c r="H35" s="24">
-        <v>403103</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="44"/>
+        <v>3102</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="26"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="J28:J35"/>
+    <mergeCell ref="K28:K35"/>
+    <mergeCell ref="I19:I27"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="K19:K27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="E28:E35"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="L6:L7"/>
@@ -2038,51 +2083,6 @@
     <mergeCell ref="A19:A27"/>
     <mergeCell ref="E19:E27"/>
     <mergeCell ref="D28:D35"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="K19:K27"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="J2:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WJL_MES项目设备采集.xlsx
+++ b/WJL_MES项目设备采集.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E016DC06-1CA6-4606-961D-1A61F61848D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,26 +302,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.104.147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气密性检测设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号工位状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号工位OK数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厂家已提供数据库，未测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厂家正在建数据库，未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.104.141:3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,22 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号工位总测数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号工位状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号工位OK数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号工位总测数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,14 +367,6 @@
   </si>
   <si>
     <t>D1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号工位NG数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号工位NG数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,13 +469,57 @@
   </si>
   <si>
     <t>三菱FX3U-32M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程OK数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程总测数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程NG数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程OK数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程总测数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程NG数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.104.147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usr:sa pwd:lc000.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,6 +756,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -908,23 +914,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -960,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1152,12 +1124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1201,126 +1173,126 @@
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="28">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H2" s="13"/>
-      <c r="I2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="31"/>
+      <c r="I2" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="32"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="33"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1330,28 +1302,28 @@
         <v>21</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>115</v>
+      <c r="K6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1359,26 +1331,26 @@
         <v>22</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="28">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1388,26 +1360,26 @@
         <v>45</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="31"/>
+      <c r="K8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1415,18 +1387,18 @@
         <v>22</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1434,18 +1406,18 @@
         <v>46</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="32"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1453,18 +1425,18 @@
         <v>47</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1472,18 +1444,18 @@
         <v>48</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,11 +1463,11 @@
         <v>47</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="33"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1521,33 +1493,35 @@
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27">
+      <c r="A15" s="28">
         <v>5</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="28">
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1557,45 +1531,45 @@
         <v>34</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="31"/>
+      <c r="I15" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H16" s="21"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="32"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
@@ -1603,18 +1577,18 @@
         <v>41</v>
       </c>
       <c r="H17" s="21"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="32"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="10" t="s">
         <v>43</v>
       </c>
@@ -1622,26 +1596,26 @@
         <v>44</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="33"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>6</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="31">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1651,26 +1625,26 @@
         <v>55</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="I19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="31"/>
+      <c r="L19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1678,18 +1652,18 @@
         <v>57</v>
       </c>
       <c r="H20" s="16"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1697,18 +1671,18 @@
         <v>59</v>
       </c>
       <c r="H21" s="16"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="32"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1716,18 +1690,18 @@
         <v>60</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="32"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="11" t="s">
         <v>69</v>
       </c>
@@ -1735,18 +1709,18 @@
         <v>61</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="32"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="11" t="s">
         <v>70</v>
       </c>
@@ -1754,18 +1728,18 @@
         <v>62</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="11" t="s">
         <v>63</v>
       </c>
@@ -1773,18 +1747,18 @@
         <v>64</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="32"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="11" t="s">
         <v>65</v>
       </c>
@@ -1792,18 +1766,18 @@
         <v>66</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="32"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="11" t="s">
         <v>67</v>
       </c>
@@ -1811,212 +1785,212 @@
         <v>68</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="33"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <v>7</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="27">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H28" s="13">
         <v>2020</v>
       </c>
-      <c r="I28" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M28" s="31"/>
+      <c r="I28" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="3" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H29" s="15">
         <v>3000</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="32"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H30" s="15">
         <v>3004</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="32"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H31" s="15">
         <v>3002</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="32"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H32" s="23">
         <v>2022</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="32"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="33"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H33" s="23">
         <v>3100</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="3" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H34" s="23">
         <v>3104</v>
       </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="32"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H35" s="24">
         <v>3102</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="33"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
+      <c r="A36" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>

--- a/WJL_MES项目设备采集.xlsx
+++ b/WJL_MES项目设备采集.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,9 +46,6 @@
   <si>
     <t>电气检测设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐压强度</t>
   </si>
   <si>
     <t>泄漏电流</t>
@@ -139,10 +136,6 @@
     <t>线体控制设备</t>
   </si>
   <si>
-    <t>设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y181</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,18 +165,6 @@
   </si>
   <si>
     <t>D7001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产节拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1220</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.103.82:5020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气密性检测设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +292,6 @@
   </si>
   <si>
     <t>已测试通信正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.104.141:3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,14 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y183</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍速链延时停止锁存时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读数据库
 SQL SERVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运行环境：kvm 镜像(.img) centos 6.8 x64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,11 +392,6 @@
   </si>
   <si>
     <t>待确认mysql 或 协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读PLC网口
-MC协议 二进制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,51 +420,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>气密性1号工程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程OK数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程总测数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性1号工程NG数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程OK数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程总测数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气密性2号工程NG数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.104.147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usr:sa pwd:lc000.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读PLC网口
+MC协议 ASCII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位45，数字：460 退出，461放行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位35, 数字：360 退出，361放行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线体控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位读取（1字节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按int（2字节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按int（2字节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按int（2字节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按int（2字节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.104.141:3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.103.82:4806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>三菱FX3U-32M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气密性1号工程状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性1号工程OK数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性1号工程总测数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性1号工程NG数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性2号工程状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性2号工程OK数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性2号工程总测数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气密性2号工程NG数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.104.147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usr:sa pwd:lc000.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试正常</t>
+    <t>设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍速链延时停止锁存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产节拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流耐压强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按int（2字节） 取出值的单位是 100ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取1字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行环境：kvm 镜像(.img) windows server2012 R2 x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,8 +614,36 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,48 +829,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,6 +921,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,23 +1232,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="31.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1151,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1173,829 +1283,903 @@
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="28">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="D2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="34">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="13">
+        <v>400</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="39" t="s">
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="15">
+        <v>300</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="15">
+        <v>200</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="34"/>
+      <c r="H5" s="14">
+        <v>500</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="28">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="34">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="35" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
+        <v>3</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="3" t="s">
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
-        <v>3</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="28">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="33"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34">
+        <v>5</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="39"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="37">
+        <v>6</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="37">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="I21" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
-        <v>5</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="34">
+        <v>7</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="34">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="35" t="s">
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="15">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="39"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="15">
+        <v>3004</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="39"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3002</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="21">
+        <v>2022</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="39"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="31">
-        <v>6</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="31">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="42" t="s">
+      <c r="G35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="21">
+        <v>3100</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="39"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="33"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="33"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="28">
-        <v>7</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="32"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="15">
-        <v>3000</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="33"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="15">
-        <v>3004</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="15">
-        <v>3002</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="33"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="23">
-        <v>2022</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="33"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="23">
-        <v>3100</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="33"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="G36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="21">
         <v>3104</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="33"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="24">
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="39"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="22">
         <v>3102</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="34"/>
-    </row>
-    <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="K2:K5"/>
@@ -2016,49 +2200,51 @@
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="D8:D13"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E15:E20"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="I8:I13"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="K8:K13"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="J28:J35"/>
-    <mergeCell ref="K28:K35"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="K19:K27"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="E28:E35"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="I30:I37"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="K30:K37"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="A38:K38"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M8:M13"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M19:M27"/>
-    <mergeCell ref="L19:L27"/>
-    <mergeCell ref="L28:L35"/>
-    <mergeCell ref="M28:M35"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="M15:M20"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="M21:M29"/>
+    <mergeCell ref="L21:L29"/>
+    <mergeCell ref="L30:L37"/>
+    <mergeCell ref="M30:M37"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="D30:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>